--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1444535.827100614</v>
+        <v>1443213.263288678</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948784</v>
+        <v>5866991.033948787</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>381.8047781162003</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.9263373332098</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -907,10 +907,10 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>178.4721935233498</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1065,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.67188320071078</v>
+        <v>394.6360885293879</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1141,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1381,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>108.2642464846192</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,19 +1584,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>278.7698923946467</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>183.5236380974013</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1660,7 +1660,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>168.9342323224422</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>309.4445282291067</v>
       </c>
       <c r="C23" t="n">
-        <v>179.3230888550377</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>116.2108915191152</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>64.41642533544186</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>258.2090680641879</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>71.42047856476334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2772,13 +2772,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>3.703125929618804</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,10 +2809,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>233.7920454221333</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>73.61430756491981</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>269.005831210175</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
-        <v>306.0455584304623</v>
+        <v>209.3711187917248</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.234755280439</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.3269179642815</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>173.7190346830451</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313585</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.2815172923347</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>42.05424424700634</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>36.20098538750731</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>73.27733585685719</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>179.3230888550386</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>118.8502774209942</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>89.93723448672736</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U44" t="n">
-        <v>27.77593058653722</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>89.0489279290292</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>49.70166156328253</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -4194,16 +4194,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>782.0133013574437</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>558.8553848592519</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>717.1200753725753</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.371709779047</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="N9" t="n">
         <v>1025.008892784821</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377.4895839572943</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>206.3962115190108</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1072.72313641645</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>789.9249889625739</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>789.9249889625739</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>789.9249889625739</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>789.9249889625739</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.1892903513386</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.881125286859</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>2092.756534600129</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.29260469319</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>1273.952389210086</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F11" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>3314.038978003258</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2913.102304951348</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>674.809389578345</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>674.809389578345</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>1212.453216578637</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>749.3736558270855</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5837,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
         <v>2134.629556905899</v>
@@ -5989,10 +5989,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732494</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477945</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6016,25 +6016,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>190.90446936191</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>661.3588250177028</v>
       </c>
       <c r="L24" t="n">
-        <v>778.2043133443127</v>
+        <v>661.3588250177028</v>
       </c>
       <c r="M24" t="n">
-        <v>843.7713392023624</v>
+        <v>661.3588250177028</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.022272820809</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O24" t="n">
-        <v>1741.022272820809</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P24" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q24" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.3927201303344</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="C25" t="n">
-        <v>374.2993476920509</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="D25" t="n">
-        <v>214.8047030149609</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E25" t="n">
-        <v>214.8047030149609</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F25" t="n">
-        <v>214.8047030149609</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
         <v>97.41996410676371</v>
@@ -6174,25 +6174,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1555.361596432607</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.171987275931</v>
+        <v>1316.144397750111</v>
       </c>
       <c r="U25" t="n">
-        <v>1196.171987275931</v>
+        <v>1316.144397750111</v>
       </c>
       <c r="V25" t="n">
-        <v>1196.171987275931</v>
+        <v>1316.144397750111</v>
       </c>
       <c r="W25" t="n">
-        <v>1196.171987275931</v>
+        <v>1316.144397750111</v>
       </c>
       <c r="X25" t="n">
-        <v>957.8281251356141</v>
+        <v>1077.800535609795</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0924265243788</v>
+        <v>853.0648369985595</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092807</v>
+        <v>2537.213237850825</v>
       </c>
       <c r="C26" t="n">
-        <v>2054.94674962393</v>
+        <v>2127.088647164095</v>
       </c>
       <c r="D26" t="n">
-        <v>1650.482819716991</v>
+        <v>1722.624717257156</v>
       </c>
       <c r="E26" t="n">
-        <v>1236.142604233887</v>
+        <v>1308.284501774052</v>
       </c>
       <c r="F26" t="n">
-        <v>815.1121921875749</v>
+        <v>887.2540897277399</v>
       </c>
       <c r="G26" t="n">
-        <v>406.5568918143014</v>
+        <v>478.6987893544664</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676373</v>
+        <v>169.5618616469287</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210383</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168605</v>
+        <v>4482.612343926623</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505086</v>
+        <v>4132.774789263103</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640254</v>
+        <v>3749.014488398272</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809207</v>
+        <v>3348.371090567224</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757297</v>
+        <v>2947.434417515314</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K27" t="n">
-        <v>769.2575309382119</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L27" t="n">
-        <v>769.2575309382119</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M27" t="n">
-        <v>769.2575309382119</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N27" t="n">
-        <v>1161.994247859146</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O27" t="n">
-        <v>1161.994247859146</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="P27" t="n">
-        <v>1741.022272820809</v>
+        <v>1827.686693961768</v>
       </c>
       <c r="Q27" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>405.8321779075371</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>405.8321779075371</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J28" t="n">
         <v>116.8792779475706</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V28" t="n">
-        <v>909.6375410098981</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W28" t="n">
-        <v>630.5678765187724</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X28" t="n">
-        <v>630.5678765187724</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y28" t="n">
-        <v>405.8321779075371</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I29" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6475,13 +6475,13 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
         <v>4819.791607344924</v>
@@ -6490,25 +6490,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>567.8743197625565</v>
       </c>
       <c r="L30" t="n">
-        <v>567.8743197625565</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M30" t="n">
-        <v>843.7713392023624</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N30" t="n">
-        <v>1741.022272820809</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O30" t="n">
-        <v>1741.022272820809</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P30" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q30" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5133365450472</v>
+        <v>847.9283557862407</v>
       </c>
       <c r="C31" t="n">
-        <v>97.41996410676371</v>
+        <v>847.9283557862407</v>
       </c>
       <c r="D31" t="n">
-        <v>97.41996410676371</v>
+        <v>688.4337111091506</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676371</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676371</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I31" t="n">
         <v>97.41996410676371</v>
@@ -6654,19 +6654,19 @@
         <v>1196.171987275931</v>
       </c>
       <c r="U31" t="n">
-        <v>960.0184060414525</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="V31" t="n">
-        <v>960.0184060414525</v>
+        <v>922.2862422154526</v>
       </c>
       <c r="W31" t="n">
-        <v>680.9487415503269</v>
+        <v>847.9283557862407</v>
       </c>
       <c r="X31" t="n">
-        <v>680.9487415503269</v>
+        <v>847.9283557862407</v>
       </c>
       <c r="Y31" t="n">
-        <v>456.2130429390916</v>
+        <v>847.9283557862407</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092807</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406077</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499138</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F32" t="n">
-        <v>815.1121921875749</v>
+        <v>797.1440503395065</v>
       </c>
       <c r="G32" t="n">
-        <v>406.5568918143014</v>
+        <v>388.588749966233</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
         <v>97.41996410676373</v>
@@ -6727,25 +6727,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757297</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>994.6708977252102</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>1720.210829014135</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5133365450472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C34" t="n">
         <v>97.41996410676373</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1328.99835973188</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U34" t="n">
-        <v>1046.204444707886</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V34" t="n">
-        <v>772.3186996474082</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W34" t="n">
-        <v>493.2490351562825</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X34" t="n">
-        <v>493.2490351562825</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y34" t="n">
-        <v>268.5133365450472</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D35" t="n">
         <v>1730.16562699896</v>
@@ -6952,7 +6952,7 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
         <v>4480.322041270213</v>
@@ -6976,13 +6976,13 @@
         <v>3911.325541505085</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K36" t="n">
-        <v>298.803175282419</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L36" t="n">
-        <v>979.587524519968</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M36" t="n">
-        <v>979.587524519968</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N36" t="n">
-        <v>1876.838458138415</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O36" t="n">
-        <v>1876.838458138415</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P36" t="n">
-        <v>2102.446124327753</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q36" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0342101116207</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="C37" t="n">
-        <v>503.9408376733372</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="D37" t="n">
-        <v>503.9408376733372</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0300225416567</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676371</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U37" t="n">
-        <v>913.3780722519373</v>
+        <v>1234.37905622583</v>
       </c>
       <c r="V37" t="n">
-        <v>913.3780722519373</v>
+        <v>1191.900021632894</v>
       </c>
       <c r="W37" t="n">
-        <v>913.3780722519373</v>
+        <v>912.8303571417687</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0342101116207</v>
+        <v>674.4864950014521</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0342101116207</v>
+        <v>449.7507963902168</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2495415964485</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M39" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N39" t="n">
-        <v>994.6708977252102</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O39" t="n">
-        <v>1558.609758636149</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4002.615141920434</v>
+        <v>725.0003630157237</v>
       </c>
       <c r="C40" t="n">
-        <v>3831.521769482151</v>
+        <v>725.0003630157237</v>
       </c>
       <c r="D40" t="n">
-        <v>3672.027124805061</v>
+        <v>688.4337111091506</v>
       </c>
       <c r="E40" t="n">
-        <v>3672.027124805061</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="F40" t="n">
-        <v>3507.395998915652</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G40" t="n">
-        <v>3340.223202389042</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.20569142252</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>4789.214420046789</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>4789.214420046789</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U40" t="n">
-        <v>4506.420505022796</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="V40" t="n">
-        <v>4506.420505022796</v>
+        <v>1004.070027506849</v>
       </c>
       <c r="W40" t="n">
-        <v>4227.35084053167</v>
+        <v>725.0003630157237</v>
       </c>
       <c r="X40" t="n">
-        <v>4227.35084053167</v>
+        <v>725.0003630157237</v>
       </c>
       <c r="Y40" t="n">
-        <v>4002.615141920434</v>
+        <v>725.0003630157237</v>
       </c>
     </row>
     <row r="41">
@@ -7390,10 +7390,10 @@
         <v>2315.763990092807</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
         <v>1315.825411515857</v>
@@ -7411,25 +7411,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
         <v>4819.791607344925</v>
@@ -7496,16 +7496,16 @@
         <v>567.8743197625565</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8743197625565</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8743197625565</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="N42" t="n">
-        <v>567.8743197625565</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="O42" t="n">
-        <v>1293.414251051481</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="P42" t="n">
         <v>1776.213932090868</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4185.26578490308</v>
+        <v>217.4707493804952</v>
       </c>
       <c r="C43" t="n">
-        <v>4014.172412464796</v>
+        <v>217.4707493804952</v>
       </c>
       <c r="D43" t="n">
-        <v>3854.677767787706</v>
+        <v>217.4707493804952</v>
       </c>
       <c r="E43" t="n">
-        <v>3693.766952656026</v>
+        <v>217.4707493804952</v>
       </c>
       <c r="F43" t="n">
-        <v>3529.135826766617</v>
+        <v>217.4707493804952</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4789.214420046789</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.997221364293</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="U43" t="n">
-        <v>4459.151529963558</v>
+        <v>995.1618575433342</v>
       </c>
       <c r="V43" t="n">
-        <v>4185.26578490308</v>
+        <v>721.2761124828562</v>
       </c>
       <c r="W43" t="n">
-        <v>4185.26578490308</v>
+        <v>442.2064479917306</v>
       </c>
       <c r="X43" t="n">
-        <v>4185.26578490308</v>
+        <v>442.2064479917306</v>
       </c>
       <c r="Y43" t="n">
-        <v>4185.26578490308</v>
+        <v>217.4707493804952</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I44" t="n">
         <v>97.41996410676373</v>
@@ -7654,10 +7654,10 @@
         <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N44" t="n">
         <v>3254.588416372259</v>
@@ -7675,25 +7675,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U44" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C45" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D45" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E45" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F45" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G45" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H45" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>3032.163597022794</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K45" t="n">
-        <v>3032.163597022794</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L45" t="n">
-        <v>3712.947946260343</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="M45" t="n">
-        <v>3784.034422542318</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="N45" t="n">
-        <v>3784.034422542318</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="O45" t="n">
-        <v>4509.574353831243</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="P45" t="n">
-        <v>4509.574353831243</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q45" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R45" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S45" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T45" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U45" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V45" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W45" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X45" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y45" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3619.084238816141</v>
+        <v>307.1183073326239</v>
       </c>
       <c r="C46" t="n">
-        <v>3619.084238816141</v>
+        <v>307.1183073326239</v>
       </c>
       <c r="D46" t="n">
-        <v>3619.084238816141</v>
+        <v>147.623662655534</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766617</v>
+        <v>147.623662655534</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046789</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1381.211494048538</v>
       </c>
       <c r="U46" t="n">
-        <v>4082.163799567693</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V46" t="n">
-        <v>4082.163799567693</v>
+        <v>824.5318339640662</v>
       </c>
       <c r="W46" t="n">
-        <v>4082.163799567693</v>
+        <v>545.4621694729406</v>
       </c>
       <c r="X46" t="n">
-        <v>3843.819937427377</v>
+        <v>307.1183073326239</v>
       </c>
       <c r="Y46" t="n">
-        <v>3619.084238816141</v>
+        <v>307.1183073326239</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,22 +8066,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>201.8514806265826</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682838</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>333.9158139669638</v>
       </c>
       <c r="N9" t="n">
-        <v>524.3053858067743</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>643.5546166267301</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
@@ -9260,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856358</v>
+        <v>137.14110914558</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M24" t="n">
-        <v>100.5769260983222</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>35.95062976461621</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654513</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N27" t="n">
-        <v>426.0659948221395</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O27" t="n">
-        <v>35.95062976461621</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>358.0781769018926</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,25 +10196,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654513</v>
+        <v>671.8876652738675</v>
       </c>
       <c r="M30" t="n">
-        <v>313.0314650697932</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O30" t="n">
-        <v>35.95062976461621</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>42.71231595856358</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654513</v>
+        <v>671.8876652738675</v>
       </c>
       <c r="M33" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P33" t="n">
-        <v>57.7841919053709</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>671.8876652738675</v>
       </c>
       <c r="M36" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461621</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P36" t="n">
-        <v>264.6490629989708</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>42.71231595856358</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654513</v>
+        <v>671.8876652738675</v>
       </c>
       <c r="M39" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O39" t="n">
-        <v>605.5858428059688</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>53.31116889588058</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856358</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654513</v>
+        <v>671.8876652738671</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P42" t="n">
-        <v>524.4389769889198</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588058</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>671.8876652738671</v>
       </c>
       <c r="M45" t="n">
-        <v>106.1521285467322</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
         <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>1.200273584690422</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23670,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23703,13 +23703,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>107.3447355237722</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>96.67443963873791</v>
       </c>
       <c r="C23" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>49.29017704222804</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.7726863694387</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>147.8142767156747</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>7.465500644386353</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,7 +24618,7 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>14.88698183152162</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>267.4437616802545</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.17393045162001</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>202.6646602812945</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>147.8142767156743</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>96.67443963873745</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>131.4981087313896</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>226.7002559248249</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>226.7002559248246</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>32.70329733817999</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
@@ -25332,7 +25332,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>229.0926433628669</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.6987128428118</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>74.15105757558941</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>226.7002559248239</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>46.65079114034906</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.028741387026</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U44" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>70.25277905133451</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>113.2831530672321</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696380.8642350481</v>
+        <v>696380.8642350479</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696380.8642350481</v>
+        <v>696380.8642350482</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696380.8642350482</v>
+        <v>696380.8642350481</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716169.5343945604</v>
+        <v>716169.5343945603</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716169.5343945605</v>
+        <v>716169.5343945607</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716169.5343945604</v>
+        <v>716169.5343945606</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876336</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
         <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="F2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="G2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="I2" t="n">
-        <v>403961.6927404206</v>
+        <v>403961.6927404205</v>
       </c>
       <c r="J2" t="n">
+        <v>403961.6927404203</v>
+      </c>
+      <c r="K2" t="n">
         <v>403961.6927404205</v>
       </c>
-      <c r="K2" t="n">
-        <v>403961.6927404203</v>
-      </c>
       <c r="L2" t="n">
-        <v>403961.6927404206</v>
+        <v>403961.6927404205</v>
       </c>
       <c r="M2" t="n">
         <v>403961.6927404206</v>
       </c>
       <c r="N2" t="n">
-        <v>403961.6927404204</v>
+        <v>403961.6927404205</v>
       </c>
       <c r="O2" t="n">
-        <v>403961.6927404204</v>
+        <v>403961.6927404203</v>
       </c>
       <c r="P2" t="n">
         <v>403961.6927404206</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588477</v>
+        <v>45948.62261588476</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26423,43 +26423,43 @@
         <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
-        <v>203402.683767692</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
+        <v>74374.35696474132</v>
+      </c>
+      <c r="G4" t="n">
         <v>74374.35696474131</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74374.35696474132</v>
       </c>
       <c r="H4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="J4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="K4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="L4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="M4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="N4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="P4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
         <v>74967.83978868563</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3944.797551669879</v>
+        <v>-3944.797551669944</v>
       </c>
       <c r="C6" t="n">
-        <v>171010.712341444</v>
+        <v>171010.7123414441</v>
       </c>
       <c r="D6" t="n">
-        <v>171010.7123414442</v>
+        <v>171010.7123414441</v>
       </c>
       <c r="E6" t="n">
-        <v>53656.37106331893</v>
+        <v>53475.79047067001</v>
       </c>
       <c r="F6" t="n">
-        <v>245786.1339627622</v>
+        <v>245605.553370113</v>
       </c>
       <c r="G6" t="n">
-        <v>245786.1339627622</v>
+        <v>245605.5533701131</v>
       </c>
       <c r="H6" t="n">
-        <v>245786.1339627623</v>
+        <v>245605.553370113</v>
       </c>
       <c r="I6" t="n">
-        <v>209456.9483940566</v>
+        <v>209324.2788812891</v>
       </c>
       <c r="J6" t="n">
-        <v>118810.7702040462</v>
+        <v>118678.1006912787</v>
       </c>
       <c r="K6" t="n">
-        <v>255405.5710099411</v>
+        <v>255272.9014971738</v>
       </c>
       <c r="L6" t="n">
-        <v>255405.5710099414</v>
+        <v>255272.9014971739</v>
       </c>
       <c r="M6" t="n">
-        <v>95047.12050925881</v>
+        <v>94914.45099649126</v>
       </c>
       <c r="N6" t="n">
-        <v>255405.5710099412</v>
+        <v>255272.9014971737</v>
       </c>
       <c r="O6" t="n">
-        <v>255405.5710099412</v>
+        <v>255272.9014971736</v>
       </c>
       <c r="P6" t="n">
-        <v>255405.5710099414</v>
+        <v>255272.9014971739</v>
       </c>
     </row>
   </sheetData>
@@ -26758,25 +26758,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
         <v>42.5994067681289</v>
@@ -26813,7 +26813,7 @@
         <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
         <v>1217.749551334546</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>52.20333020176145</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.12252820519052</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>1.562004291913098</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>238.3479144024995</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.4470846671338</v>
+        <v>11.48287933845666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R23" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U23" t="n">
         <v>0.01370031172442331</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N24" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q24" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S24" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L25" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
         <v>11.75534121521167</v>
@@ -32885,22 +32885,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S25" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,43 +32940,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R26" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U26" t="n">
         <v>0.01370031172442331</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N27" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q27" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S27" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L28" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
         <v>11.75534121521167</v>
@@ -33122,22 +33122,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S28" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R29" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U29" t="n">
         <v>0.01370031172442331</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N30" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q30" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S30" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L31" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
         <v>11.75534121521167</v>
@@ -33359,22 +33359,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S31" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R32" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U32" t="n">
         <v>0.01370031172442331</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N33" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q33" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S33" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L34" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
         <v>11.75534121521167</v>
@@ -33596,22 +33596,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S34" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R35" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U35" t="n">
         <v>0.01370031172442331</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N36" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q36" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S36" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L37" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
         <v>11.75534121521167</v>
@@ -33833,22 +33833,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S37" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R38" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U38" t="n">
         <v>0.01370031172442331</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N39" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q39" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S39" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L40" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N40" t="n">
         <v>11.75534121521167</v>
@@ -34070,22 +34070,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S40" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163524</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436435</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720064</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524822</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944226</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935846</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>445.0368534430332</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>209.2450561298663</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>276.3515302285463</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>471.1119924130244</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>587.440092815881</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
         <v>559.1282394618715</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>94.42879318701645</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>687.6609588258071</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>66.229319048535</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>906.3140743620672</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
         <v>559.1282394618715</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>396.7037544655901</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>365.0745974817616</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="R27" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
         <v>559.1282394618715</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M30" t="n">
-        <v>278.6838580200059</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
         <v>559.1282394618715</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.02166041078215</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
         <v>559.1282394618715</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258071</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>227.8865315043821</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
         <v>559.1282394618715</v>
@@ -37566,7 +37566,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>569.6352130413526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L41" t="n">
         <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
         <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>635.6682700673221</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.676445494331</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
         <v>365.0745974817616</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>635.6682700673221</v>
       </c>
       <c r="M45" t="n">
-        <v>71.80452149694504</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
         <v>365.0745974817616</v>
